--- a/medicine/Mort/Nécropole_du_Clos_au_Duc/Nécropole_du_Clos_au_Duc.xlsx
+++ b/medicine/Mort/Nécropole_du_Clos_au_Duc/Nécropole_du_Clos_au_Duc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_Clos_au_Duc</t>
+          <t>Nécropole_du_Clos_au_Duc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La nécropole du clos au duc , est une nécropole gallo-romaine située dans le quartier éponyme d'Évreux[1].
+La nécropole du clos au duc , est une nécropole gallo-romaine située dans le quartier éponyme d'Évreux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_Clos_au_Duc</t>
+          <t>Nécropole_du_Clos_au_Duc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se situe à la lisière de l'ancienne ville gallo-romaine Mediolanum Aulercorum, actuellement Évreux, sur les rives de l'Iton[2]. Elle est située à flanc de coteau, dans la partie méridionale de la ville, les coteaux étant composés de craie et de matière calcaire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se situe à la lisière de l'ancienne ville gallo-romaine Mediolanum Aulercorum, actuellement Évreux, sur les rives de l'Iton. Elle est située à flanc de coteau, dans la partie méridionale de la ville, les coteaux étant composés de craie et de matière calcaire.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_Clos_au_Duc</t>
+          <t>Nécropole_du_Clos_au_Duc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haut-Empire
-Il s'agit d'une nécropole du Ier siècle de l'époque de la dynastie romaine julio-claudienne (-27 à 78) ; cette dynastie à régné de l'empereur Auguste à l'empereur Néron. Elle situe près de l'actuelle cimetière Saint-Louis entre le haut de la rue Saint Louis et la gare SNCF Évreux-Normandie. Outre cette généralité caractéristique des villes gallo-romaines d'ensevelir les morts à l'extérieur de la ville par souci d'hygiène, elle a permis de mettre en évidence en 2003, lors de travaux d'excavation, l'évolution des pratiques funéraires d'Évreux à l'époque gallo-romaine. Il existe une prédominance des ossements d'animaux, généralement des chevaux, près d'ossements humains à l'époque ante chrétienne, c'est-à-dire avant son évangélisation par Saint Taurin au IVe siècle[3].
-Antiquité tardive
-Les pratiques nouvelles, selon les fouilles de 2007 organisées par l'INRAP et son service d'archéologie préventive, est la mise en évidence d'inhumation d'enfants infirmes et mort-nés ce qui témoigne d'une christianisation au IVe siècle, constituant sa spécifique en tant que nécropole gallo-romaine[4]. Avant la christianisation à l'époque de l'antiquité tardive le mode d'ensevelissement n'était pas l'entérinement mais la crémation, ce changement de rite caractéristique du changement de religion avec la christianisation à l'époque de saint taurin puisque le christianisme déconseille de la crémation qui gène selon ses croyance de salue des âmes vers le paradis[5].
+          <t>Haut-Empire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une nécropole du Ier siècle de l'époque de la dynastie romaine julio-claudienne (-27 à 78) ; cette dynastie à régné de l'empereur Auguste à l'empereur Néron. Elle situe près de l'actuelle cimetière Saint-Louis entre le haut de la rue Saint Louis et la gare SNCF Évreux-Normandie. Outre cette généralité caractéristique des villes gallo-romaines d'ensevelir les morts à l'extérieur de la ville par souci d'hygiène, elle a permis de mettre en évidence en 2003, lors de travaux d'excavation, l'évolution des pratiques funéraires d'Évreux à l'époque gallo-romaine. Il existe une prédominance des ossements d'animaux, généralement des chevaux, près d'ossements humains à l'époque ante chrétienne, c'est-à-dire avant son évangélisation par Saint Taurin au IVe siècle.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_du_Clos_au_Duc</t>
+          <t>Nécropole_du_Clos_au_Duc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +591,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Données archéologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antiquité tardive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pratiques nouvelles, selon les fouilles de 2007 organisées par l'INRAP et son service d'archéologie préventive, est la mise en évidence d'inhumation d'enfants infirmes et mort-nés ce qui témoigne d'une christianisation au IVe siècle, constituant sa spécifique en tant que nécropole gallo-romaine. Avant la christianisation à l'époque de l'antiquité tardive le mode d'ensevelissement n'était pas l'entérinement mais la crémation, ce changement de rite caractéristique du changement de religion avec la christianisation à l'époque de saint taurin puisque le christianisme déconseille de la crémation qui gène selon ses croyance de salue des âmes vers le paradis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_du_Clos_au_Duc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_du_Clos_au_Duc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Approche en termes d'économie morale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme d'économie morale désigne le rapport qu'entretiennent les populations à l'argent, la hiérarchie sociale liée au rite funéraire est très importante et il est le reflet de stratification sociale[6]. Les tombes situées dans la nécropole gallo-romaine semblent montrer qu'hommes civils et chevaux étaient enterrés côte-à-côte, puisque dans l'antiquité romaine le cheval était un animale utile, rare et cher[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme d'économie morale désigne le rapport qu'entretiennent les populations à l'argent, la hiérarchie sociale liée au rite funéraire est très importante et il est le reflet de stratification sociale. Les tombes situées dans la nécropole gallo-romaine semblent montrer qu'hommes civils et chevaux étaient enterrés côte-à-côte, puisque dans l'antiquité romaine le cheval était un animale utile, rare et cher.
 </t>
         </is>
       </c>
